--- a/natmiOut/OldD2/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H2">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I2">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J2">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>11.04906929232239</v>
+        <v>11.335384096288</v>
       </c>
       <c r="R2">
-        <v>11.04906929232239</v>
+        <v>45.341536385152</v>
       </c>
       <c r="S2">
-        <v>0.0003087410098983898</v>
+        <v>0.0002791147959397227</v>
       </c>
       <c r="T2">
-        <v>0.0003087410098983898</v>
+        <v>0.000148175827010648</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H3">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I3">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J3">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>925.8904791885707</v>
+        <v>996.65888342328</v>
       </c>
       <c r="R3">
-        <v>925.8904791885707</v>
+        <v>5979.95330053968</v>
       </c>
       <c r="S3">
-        <v>0.0258718950924326</v>
+        <v>0.02454105114614485</v>
       </c>
       <c r="T3">
-        <v>0.0258718950924326</v>
+        <v>0.01954244598739904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H4">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I4">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J4">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>7.861653131640951</v>
+        <v>8.059312731829333</v>
       </c>
       <c r="R4">
-        <v>7.861653131640951</v>
+        <v>48.355876390976</v>
       </c>
       <c r="S4">
-        <v>0.0002196759440200318</v>
+        <v>0.0001984470406517226</v>
       </c>
       <c r="T4">
-        <v>0.0002196759440200318</v>
+        <v>0.0001580266692816328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H5">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I5">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J5">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>5.606676108585395</v>
+        <v>5.652288674965334</v>
       </c>
       <c r="R5">
-        <v>5.606676108585395</v>
+        <v>33.913732049792</v>
       </c>
       <c r="S5">
-        <v>0.0001566657605397269</v>
+        <v>0.0001391781157748315</v>
       </c>
       <c r="T5">
-        <v>0.0001566657605397269</v>
+        <v>0.000110829841556517</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H6">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I6">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J6">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>18.01465447697541</v>
+        <v>20.46991593177066</v>
       </c>
       <c r="R6">
-        <v>18.01465447697541</v>
+        <v>122.819495590624</v>
       </c>
       <c r="S6">
-        <v>0.0005033783813860847</v>
+        <v>0.0005040373012212648</v>
       </c>
       <c r="T6">
-        <v>0.0005033783813860847</v>
+        <v>0.0004013732613200759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.8421325470989</v>
+        <v>19.892432</v>
       </c>
       <c r="H7">
-        <v>19.8421325470989</v>
+        <v>39.784864</v>
       </c>
       <c r="I7">
-        <v>0.03829315153645891</v>
+        <v>0.03638758592113072</v>
       </c>
       <c r="J7">
-        <v>0.03829315153645891</v>
+        <v>0.02605491730493311</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>401.9936780973381</v>
+        <v>435.593465474888</v>
       </c>
       <c r="R7">
-        <v>401.9936780973381</v>
+        <v>1742.373861899552</v>
       </c>
       <c r="S7">
-        <v>0.01123279534818208</v>
+        <v>0.01072575752139833</v>
       </c>
       <c r="T7">
-        <v>0.01123279534818208</v>
+        <v>0.005694065718365207</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>200.994713713177</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H8">
-        <v>200.994713713177</v>
+        <v>630.862304</v>
       </c>
       <c r="I8">
-        <v>0.3878978739798406</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J8">
-        <v>0.3878978739798406</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>111.9236812845551</v>
+        <v>119.8289300458453</v>
       </c>
       <c r="R8">
-        <v>111.9236812845551</v>
+        <v>718.973580275072</v>
       </c>
       <c r="S8">
-        <v>0.0031274516863923</v>
+        <v>0.002950586153350904</v>
       </c>
       <c r="T8">
-        <v>0.0031274516863923</v>
+        <v>0.002349600682939191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>200.994713713177</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H9">
-        <v>200.994713713177</v>
+        <v>630.862304</v>
       </c>
       <c r="I9">
-        <v>0.3878978739798406</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J9">
-        <v>0.3878978739798406</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>9378.986424595394</v>
+        <v>10535.90832095472</v>
       </c>
       <c r="R9">
-        <v>9378.986424595394</v>
+        <v>94823.17488859248</v>
       </c>
       <c r="S9">
-        <v>0.262074357933928</v>
+        <v>0.2594290476672867</v>
       </c>
       <c r="T9">
-        <v>0.262074357933928</v>
+        <v>0.3098814790822487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>200.994713713177</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H10">
-        <v>200.994713713177</v>
+        <v>630.862304</v>
       </c>
       <c r="I10">
-        <v>0.3878978739798406</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J10">
-        <v>0.3878978739798406</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>79.63613370466607</v>
+        <v>85.19683262221511</v>
       </c>
       <c r="R10">
-        <v>79.63613370466607</v>
+        <v>766.7714935999361</v>
       </c>
       <c r="S10">
-        <v>0.002225249900592659</v>
+        <v>0.002097828917843854</v>
       </c>
       <c r="T10">
-        <v>0.002225249900592659</v>
+        <v>0.002505803932783506</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>200.994713713177</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H11">
-        <v>200.994713713177</v>
+        <v>630.862304</v>
       </c>
       <c r="I11">
-        <v>0.3878978739798406</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J11">
-        <v>0.3878978739798406</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>56.79390844974451</v>
+        <v>59.75163245267912</v>
       </c>
       <c r="R11">
-        <v>56.79390844974451</v>
+        <v>537.7646920741121</v>
       </c>
       <c r="S11">
-        <v>0.001586976077979255</v>
+        <v>0.001471283598105533</v>
       </c>
       <c r="T11">
-        <v>0.001586976077979255</v>
+        <v>0.001757411290793888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>200.994713713177</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H12">
-        <v>200.994713713177</v>
+        <v>630.862304</v>
       </c>
       <c r="I12">
-        <v>0.3878978739798406</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J12">
-        <v>0.3878978739798406</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>182.4829216641271</v>
+        <v>216.3921489908515</v>
       </c>
       <c r="R12">
-        <v>182.4829216641271</v>
+        <v>1947.529340917664</v>
       </c>
       <c r="S12">
-        <v>0.005099068530861691</v>
+        <v>0.005328293244894826</v>
       </c>
       <c r="T12">
-        <v>0.005099068530861691</v>
+        <v>0.006364512403520525</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>200.994713713177</v>
+        <v>210.2874346666667</v>
       </c>
       <c r="H13">
-        <v>200.994713713177</v>
+        <v>630.862304</v>
       </c>
       <c r="I13">
-        <v>0.3878978739798406</v>
+        <v>0.3846614680933682</v>
       </c>
       <c r="J13">
-        <v>0.3878978739798406</v>
+        <v>0.4131487080493621</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N13">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O13">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P13">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q13">
-        <v>4072.072598642882</v>
+        <v>4604.757850235578</v>
       </c>
       <c r="R13">
-        <v>4072.072598642882</v>
+        <v>27628.54710141347</v>
       </c>
       <c r="S13">
-        <v>0.1137847698500867</v>
+        <v>0.1133844285118863</v>
       </c>
       <c r="T13">
-        <v>0.1137847698500867</v>
+        <v>0.09028990065707627</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.880095273115</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H14">
-        <v>114.880095273115</v>
+        <v>389.68493</v>
       </c>
       <c r="I14">
-        <v>0.2217060533374686</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J14">
-        <v>0.2217060533374686</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N14">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O14">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P14">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q14">
-        <v>63.97085242567999</v>
+        <v>74.01857413387333</v>
       </c>
       <c r="R14">
-        <v>63.97085242567999</v>
+        <v>444.11144480324</v>
       </c>
       <c r="S14">
-        <v>0.001787519388233829</v>
+        <v>0.001822583076112147</v>
       </c>
       <c r="T14">
-        <v>0.001787519388233829</v>
+        <v>0.001451353127067029</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.880095273115</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H15">
-        <v>114.880095273115</v>
+        <v>389.68493</v>
       </c>
       <c r="I15">
-        <v>0.2217060533374686</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J15">
-        <v>0.2217060533374686</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P15">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q15">
-        <v>5360.632795349653</v>
+        <v>6508.052027368651</v>
       </c>
       <c r="R15">
-        <v>5360.632795349653</v>
+        <v>58572.46824631785</v>
       </c>
       <c r="S15">
-        <v>0.1497906420118764</v>
+        <v>0.1602498510993507</v>
       </c>
       <c r="T15">
-        <v>0.1497906420118764</v>
+        <v>0.1914144207361969</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.880095273115</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H16">
-        <v>114.880095273115</v>
+        <v>389.68493</v>
       </c>
       <c r="I16">
-        <v>0.2217060533374686</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J16">
-        <v>0.2217060533374686</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N16">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O16">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P16">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q16">
-        <v>45.51665294157829</v>
+        <v>52.62625702329112</v>
       </c>
       <c r="R16">
-        <v>45.51665294157829</v>
+        <v>473.6363132096201</v>
       </c>
       <c r="S16">
-        <v>0.001271858925361454</v>
+        <v>0.001295833195007255</v>
       </c>
       <c r="T16">
-        <v>0.001271858925361454</v>
+        <v>0.001547840192620647</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.880095273115</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H17">
-        <v>114.880095273115</v>
+        <v>389.68493</v>
       </c>
       <c r="I17">
-        <v>0.2217060533374686</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J17">
-        <v>0.2217060533374686</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N17">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O17">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P17">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q17">
-        <v>32.46100105373807</v>
+        <v>36.90870505667112</v>
       </c>
       <c r="R17">
-        <v>32.46100105373807</v>
+        <v>332.1783455100401</v>
       </c>
       <c r="S17">
-        <v>0.0009070485470308122</v>
+        <v>0.0009088148749776986</v>
       </c>
       <c r="T17">
-        <v>0.0009070485470308122</v>
+        <v>0.001085556533481237</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.880095273115</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H18">
-        <v>114.880095273115</v>
+        <v>389.68493</v>
       </c>
       <c r="I18">
-        <v>0.2217060533374686</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J18">
-        <v>0.2217060533374686</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N18">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O18">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P18">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q18">
-        <v>104.2995362375889</v>
+        <v>133.6658711376256</v>
       </c>
       <c r="R18">
-        <v>104.2995362375889</v>
+        <v>1202.99284023863</v>
       </c>
       <c r="S18">
-        <v>0.002914412363428892</v>
+        <v>0.003291297589016055</v>
       </c>
       <c r="T18">
-        <v>0.002914412363428892</v>
+        <v>0.003931372273671352</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.880095273115</v>
+        <v>129.8949766666667</v>
       </c>
       <c r="H19">
-        <v>114.880095273115</v>
+        <v>389.68493</v>
       </c>
       <c r="I19">
-        <v>0.2217060533374686</v>
+        <v>0.2376061722458875</v>
       </c>
       <c r="J19">
-        <v>0.2217060533374686</v>
+        <v>0.255202798384045</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N19">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O19">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P19">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q19">
-        <v>2327.424833464497</v>
+        <v>2844.368302177082</v>
       </c>
       <c r="R19">
-        <v>2327.424833464497</v>
+        <v>17066.20981306249</v>
       </c>
       <c r="S19">
-        <v>0.06503457210153715</v>
+        <v>0.07003779241142362</v>
       </c>
       <c r="T19">
-        <v>0.06503457210153715</v>
+        <v>0.05577225552100783</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>74.6184605076548</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H20">
-        <v>74.6184605076548</v>
+        <v>228.582658</v>
       </c>
       <c r="I20">
-        <v>0.1440054897755773</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J20">
-        <v>0.1440054897755773</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N20">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O20">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P20">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q20">
-        <v>41.55120618605302</v>
+        <v>43.41805677959066</v>
       </c>
       <c r="R20">
-        <v>41.55120618605302</v>
+        <v>260.508340677544</v>
       </c>
       <c r="S20">
-        <v>0.001161053571208242</v>
+        <v>0.001069096728897191</v>
       </c>
       <c r="T20">
-        <v>0.001161053571208242</v>
+        <v>0.0008513394538546646</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>74.6184605076548</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H21">
-        <v>74.6184605076548</v>
+        <v>228.582658</v>
       </c>
       <c r="I21">
-        <v>0.1440054897755773</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J21">
-        <v>0.1440054897755773</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P21">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q21">
-        <v>3481.910121896011</v>
+        <v>3817.514397639689</v>
       </c>
       <c r="R21">
-        <v>3481.910121896011</v>
+        <v>34357.62957875721</v>
       </c>
       <c r="S21">
-        <v>0.09729402712286235</v>
+        <v>0.09399988064304614</v>
       </c>
       <c r="T21">
-        <v>0.09729402712286235</v>
+        <v>0.1122804956081063</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>74.6184605076548</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H22">
-        <v>74.6184605076548</v>
+        <v>228.582658</v>
       </c>
       <c r="I22">
-        <v>0.1440054897755773</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J22">
-        <v>0.1440054897755773</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N22">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O22">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P22">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q22">
-        <v>29.56458698860979</v>
+        <v>30.86968159373022</v>
       </c>
       <c r="R22">
-        <v>29.56458698860979</v>
+        <v>277.827134343572</v>
       </c>
       <c r="S22">
-        <v>0.0008261148701850182</v>
+        <v>0.0007601140645582331</v>
       </c>
       <c r="T22">
-        <v>0.0008261148701850182</v>
+        <v>0.000907937151658545</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>74.6184605076548</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H23">
-        <v>74.6184605076548</v>
+        <v>228.582658</v>
       </c>
       <c r="I23">
-        <v>0.1440054897755773</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J23">
-        <v>0.1440054897755773</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N23">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O23">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P23">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q23">
-        <v>21.08450484314799</v>
+        <v>21.65002866595822</v>
       </c>
       <c r="R23">
-        <v>21.08450484314799</v>
+        <v>194.850257993624</v>
       </c>
       <c r="S23">
-        <v>0.0005891583396082354</v>
+        <v>0.0005330955953373409</v>
       </c>
       <c r="T23">
-        <v>0.0005891583396082354</v>
+        <v>0.0006367692941895572</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>74.6184605076548</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H24">
-        <v>74.6184605076548</v>
+        <v>228.582658</v>
       </c>
       <c r="I24">
-        <v>0.1440054897755773</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J24">
-        <v>0.1440054897755773</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N24">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O24">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P24">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q24">
-        <v>67.7460338730463</v>
+        <v>78.4061629186531</v>
       </c>
       <c r="R24">
-        <v>67.7460338730463</v>
+        <v>705.655466267878</v>
       </c>
       <c r="S24">
-        <v>0.001893008212837313</v>
+        <v>0.001930620081115996</v>
       </c>
       <c r="T24">
-        <v>0.001893008212837313</v>
+        <v>0.002306077178563977</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>74.6184605076548</v>
+        <v>76.19421933333332</v>
       </c>
       <c r="H25">
-        <v>74.6184605076548</v>
+        <v>228.582658</v>
       </c>
       <c r="I25">
-        <v>0.1440054897755773</v>
+        <v>0.1393758039582664</v>
       </c>
       <c r="J25">
-        <v>0.1440054897755773</v>
+        <v>0.1496976903460524</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N25">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O25">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P25">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q25">
-        <v>1511.740198400138</v>
+        <v>1668.458841460932</v>
       </c>
       <c r="R25">
-        <v>1511.740198400138</v>
+        <v>10010.75304876559</v>
       </c>
       <c r="S25">
-        <v>0.04224212765887615</v>
+        <v>0.04108299684531152</v>
       </c>
       <c r="T25">
-        <v>0.04224212765887615</v>
+        <v>0.03271507165967938</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.3521489985639</v>
+        <v>17.22153466666667</v>
       </c>
       <c r="H26">
-        <v>16.3521489985639</v>
+        <v>51.664604</v>
       </c>
       <c r="I26">
-        <v>0.03155786395753691</v>
+        <v>0.03150193361862766</v>
       </c>
       <c r="J26">
-        <v>0.03155786395753691</v>
+        <v>0.03383490225861063</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N26">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O26">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P26">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q26">
-        <v>9.105675860931047</v>
+        <v>9.813415985245333</v>
       </c>
       <c r="R26">
-        <v>9.105675860931047</v>
+        <v>58.88049591147199</v>
       </c>
       <c r="S26">
-        <v>0.0002544373183599014</v>
+        <v>0.0002416388873042536</v>
       </c>
       <c r="T26">
-        <v>0.0002544373183599014</v>
+        <v>0.0001924210530134684</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>16.3521489985639</v>
+        <v>17.22153466666667</v>
       </c>
       <c r="H27">
-        <v>16.3521489985639</v>
+        <v>51.664604</v>
       </c>
       <c r="I27">
-        <v>0.03155786395753691</v>
+        <v>0.03150193361862766</v>
       </c>
       <c r="J27">
-        <v>0.03155786395753691</v>
+        <v>0.03383490225861063</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P27">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q27">
-        <v>763.0378960580467</v>
+        <v>862.8404768062201</v>
       </c>
       <c r="R27">
-        <v>763.0378960580467</v>
+        <v>7765.56429125598</v>
       </c>
       <c r="S27">
-        <v>0.02132135154436953</v>
+        <v>0.0212459976271264</v>
       </c>
       <c r="T27">
-        <v>0.02132135154436953</v>
+        <v>0.02537781034341</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>16.3521489985639</v>
+        <v>17.22153466666667</v>
       </c>
       <c r="H28">
-        <v>16.3521489985639</v>
+        <v>51.664604</v>
       </c>
       <c r="I28">
-        <v>0.03155786395753691</v>
+        <v>0.03150193361862766</v>
       </c>
       <c r="J28">
-        <v>0.03155786395753691</v>
+        <v>0.03383490225861063</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N28">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O28">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P28">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q28">
-        <v>6.478886434130551</v>
+        <v>6.977212922015112</v>
       </c>
       <c r="R28">
-        <v>6.478886434130551</v>
+        <v>62.794916298136</v>
       </c>
       <c r="S28">
-        <v>0.0001810376863217231</v>
+        <v>0.000171802150188627</v>
       </c>
       <c r="T28">
-        <v>0.0001810376863217231</v>
+        <v>0.00020521335173785</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>16.3521489985639</v>
+        <v>17.22153466666667</v>
       </c>
       <c r="H29">
-        <v>16.3521489985639</v>
+        <v>51.664604</v>
       </c>
       <c r="I29">
-        <v>0.03155786395753691</v>
+        <v>0.03150193361862766</v>
       </c>
       <c r="J29">
-        <v>0.03155786395753691</v>
+        <v>0.03383490225861063</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N29">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O29">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P29">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q29">
-        <v>4.620531734512652</v>
+        <v>4.893372784279112</v>
       </c>
       <c r="R29">
-        <v>4.620531734512652</v>
+        <v>44.040355058512</v>
       </c>
       <c r="S29">
-        <v>0.0001291102079495739</v>
+        <v>0.0001204910865427419</v>
       </c>
       <c r="T29">
-        <v>0.0001291102079495739</v>
+        <v>0.0001439235754431684</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>16.3521489985639</v>
+        <v>17.22153466666667</v>
       </c>
       <c r="H30">
-        <v>16.3521489985639</v>
+        <v>51.664604</v>
       </c>
       <c r="I30">
-        <v>0.03155786395753691</v>
+        <v>0.03150193361862766</v>
       </c>
       <c r="J30">
-        <v>0.03155786395753691</v>
+        <v>0.03383490225861063</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N30">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O30">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P30">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q30">
-        <v>14.84610151988014</v>
+        <v>17.72148155855156</v>
       </c>
       <c r="R30">
-        <v>14.84610151988014</v>
+        <v>159.493334026964</v>
       </c>
       <c r="S30">
-        <v>0.0004148404046562363</v>
+        <v>0.0004363617206923276</v>
       </c>
       <c r="T30">
-        <v>0.0004148404046562363</v>
+        <v>0.000521223111439824</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>16.3521489985639</v>
+        <v>17.22153466666667</v>
       </c>
       <c r="H31">
-        <v>16.3521489985639</v>
+        <v>51.664604</v>
       </c>
       <c r="I31">
-        <v>0.03155786395753691</v>
+        <v>0.03150193361862766</v>
       </c>
       <c r="J31">
-        <v>0.03155786395753691</v>
+        <v>0.03383490225861063</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N31">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O31">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P31">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q31">
-        <v>331.2880057183928</v>
+        <v>377.1076340112287</v>
       </c>
       <c r="R31">
-        <v>331.2880057183928</v>
+        <v>2262.645804067372</v>
       </c>
       <c r="S31">
-        <v>0.009257086795879941</v>
+        <v>0.009285642146773309</v>
       </c>
       <c r="T31">
-        <v>0.009257086795879941</v>
+        <v>0.007394310823566318</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>91.4764482908505</v>
+        <v>93.19123099999999</v>
       </c>
       <c r="H32">
-        <v>91.4764482908505</v>
+        <v>186.382462</v>
       </c>
       <c r="I32">
-        <v>0.1765395674131179</v>
+        <v>0.1704670361627196</v>
       </c>
       <c r="J32">
-        <v>0.1765395674131179</v>
+        <v>0.1220609836569967</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N32">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O32">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P32">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q32">
-        <v>50.9385578078366</v>
+        <v>53.10353192565399</v>
       </c>
       <c r="R32">
-        <v>50.9385578078366</v>
+        <v>212.414127702616</v>
       </c>
       <c r="S32">
-        <v>0.001423361675474965</v>
+        <v>0.001307585287909319</v>
       </c>
       <c r="T32">
-        <v>0.001423361675474965</v>
+        <v>0.0006941678988052006</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>91.4764482908505</v>
+        <v>93.19123099999999</v>
       </c>
       <c r="H33">
-        <v>91.4764482908505</v>
+        <v>186.382462</v>
       </c>
       <c r="I33">
-        <v>0.1765395674131179</v>
+        <v>0.1704670361627196</v>
       </c>
       <c r="J33">
-        <v>0.1765395674131179</v>
+        <v>0.1220609836569967</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P33">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q33">
-        <v>4268.551897909158</v>
+        <v>4669.105729922864</v>
       </c>
       <c r="R33">
-        <v>4268.551897909158</v>
+        <v>28014.63437953719</v>
       </c>
       <c r="S33">
-        <v>0.1192749351911394</v>
+        <v>0.1149688869788872</v>
       </c>
       <c r="T33">
-        <v>0.1192749351911394</v>
+        <v>0.09155163120913151</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>91.4764482908505</v>
+        <v>93.19123099999999</v>
       </c>
       <c r="H34">
-        <v>91.4764482908505</v>
+        <v>186.382462</v>
       </c>
       <c r="I34">
-        <v>0.1765395674131179</v>
+        <v>0.1704670361627196</v>
       </c>
       <c r="J34">
-        <v>0.1765395674131179</v>
+        <v>0.1220609836569967</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N34">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O34">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P34">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q34">
-        <v>36.24389185336349</v>
+        <v>37.75593021975133</v>
       </c>
       <c r="R34">
-        <v>36.24389185336349</v>
+        <v>226.535581318508</v>
       </c>
       <c r="S34">
-        <v>0.001012752791878225</v>
+        <v>0.0009296763717297645</v>
       </c>
       <c r="T34">
-        <v>0.001012752791878225</v>
+        <v>0.0007403167114601799</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>91.4764482908505</v>
+        <v>93.19123099999999</v>
       </c>
       <c r="H35">
-        <v>91.4764482908505</v>
+        <v>186.382462</v>
       </c>
       <c r="I35">
-        <v>0.1765395674131179</v>
+        <v>0.1704670361627196</v>
       </c>
       <c r="J35">
-        <v>0.1765395674131179</v>
+        <v>0.1220609836569967</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N35">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O35">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P35">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q35">
-        <v>25.84796850404804</v>
+        <v>26.47960488628933</v>
       </c>
       <c r="R35">
-        <v>25.84796850404804</v>
+        <v>158.877629317736</v>
       </c>
       <c r="S35">
-        <v>0.0007222624538436745</v>
+        <v>0.0006520157986372437</v>
       </c>
       <c r="T35">
-        <v>0.0007222624538436745</v>
+        <v>0.0005192109927125441</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>91.4764482908505</v>
+        <v>93.19123099999999</v>
       </c>
       <c r="H36">
-        <v>91.4764482908505</v>
+        <v>186.382462</v>
       </c>
       <c r="I36">
-        <v>0.1765395674131179</v>
+        <v>0.1704670361627196</v>
       </c>
       <c r="J36">
-        <v>0.1765395674131179</v>
+        <v>0.1220609836569967</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N36">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O36">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P36">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q36">
-        <v>83.0513859752197</v>
+        <v>95.89660349967365</v>
       </c>
       <c r="R36">
-        <v>83.0513859752197</v>
+        <v>575.3796209980419</v>
       </c>
       <c r="S36">
-        <v>0.002320681326278547</v>
+        <v>0.002361292805762888</v>
       </c>
       <c r="T36">
-        <v>0.002320681326278547</v>
+        <v>0.001880336618111981</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>91.4764482908505</v>
+        <v>93.19123099999999</v>
       </c>
       <c r="H37">
-        <v>91.4764482908505</v>
+        <v>186.382462</v>
       </c>
       <c r="I37">
-        <v>0.1765395674131179</v>
+        <v>0.1704670361627196</v>
       </c>
       <c r="J37">
-        <v>0.1765395674131179</v>
+        <v>0.1220609836569967</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N37">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O37">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P37">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q37">
-        <v>1853.276295803018</v>
+        <v>2040.649995091641</v>
       </c>
       <c r="R37">
-        <v>1853.276295803018</v>
+        <v>8162.599980366565</v>
       </c>
       <c r="S37">
-        <v>0.05178557397450301</v>
+        <v>0.05024757891979316</v>
       </c>
       <c r="T37">
-        <v>0.05178557397450301</v>
+        <v>0.02667532022677533</v>
       </c>
     </row>
   </sheetData>
